--- a/4_Requirements/2_Business_Requirement/Bus_User_Stories.xlsx
+++ b/4_Requirements/2_Business_Requirement/Bus_User_Stories.xlsx
@@ -663,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
